--- a/nbs/files/lut/dbo_unit.xlsx
+++ b/nbs/files/lut/dbo_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB2DDE7-4E1C-3647-8879-BBEA7359B1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829D704B-562D-B046-8B46-3F93E62D9C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dbo_unit" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="dbo_unit">dbo_unit!$A$1:$D$15</definedName>
+    <definedName name="dbo_unit">dbo_unit!$A$1:$D$16</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>unit_id</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Bq per kgC</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -544,204 +547,212 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>13</v>
       </c>
     </row>
@@ -762,15 +773,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C266C02A97D1D41B60FC5BB4AB3B561" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0803d2d8cf8a508143be379ec3e9db2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c01d95-e195-4940-9fb4-afa395d98e0b" xmlns:ns3="77012c7d-7b27-41e5-8843-0f8877a4d830" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5c96b8183d092d730d8e1cf5f89dc9d" ns2:_="" ns3:_="">
     <xsd:import namespace="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
@@ -1005,6 +1007,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C21127-8BBE-414D-9E1A-71D77F514E62}">
   <ds:schemaRefs>
@@ -1017,14 +1028,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4DE9DBC-9D9A-45E7-9892-8F0548B32760}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0F17C70-9714-4A2A-A1FA-066CAAB2CA4F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1041,4 +1044,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4DE9DBC-9D9A-45E7-9892-8F0548B32760}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nbs/files/lut/dbo_unit.xlsx
+++ b/nbs/files/lut/dbo_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829D704B-562D-B046-8B46-3F93E62D9C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0347EA9-D61B-E046-9F16-B320050E81C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>unit_id</t>
   </si>
@@ -521,7 +521,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -552,6 +552,9 @@
       <c r="B2" t="s">
         <v>31</v>
       </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -762,14 +765,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3c01d95-e195-4940-9fb4-afa395d98e0b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="77012c7d-7b27-41e5-8843-0f8877a4d830" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,21 +1009,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3c01d95-e195-4940-9fb4-afa395d98e0b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="77012c7d-7b27-41e5-8843-0f8877a4d830" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C21127-8BBE-414D-9E1A-71D77F514E62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4DE9DBC-9D9A-45E7-9892-8F0548B32760}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
-    <ds:schemaRef ds:uri="77012c7d-7b27-41e5-8843-0f8877a4d830"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1047,9 +1047,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4DE9DBC-9D9A-45E7-9892-8F0548B32760}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C21127-8BBE-414D-9E1A-71D77F514E62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
+    <ds:schemaRef ds:uri="77012c7d-7b27-41e5-8843-0f8877a4d830"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>